--- a/data/financial_statements/soci/GM.xlsx
+++ b/data/financial_statements/soci/GM.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -137,9 +254,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -192,12 +306,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -502,129 +613,129 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
         <v>41889000000</v>
@@ -745,8 +856,8 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
         <v>0.5642</v>
@@ -867,8 +978,8 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
         <v>36020000000</v>
@@ -989,8 +1100,8 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
         <v>5869000000</v>
@@ -1111,8 +1222,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>2477000000</v>
@@ -1233,8 +1344,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>3392000000</v>
@@ -1355,8 +1466,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>259000000</v>
@@ -1396,23 +1507,23 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>259000000</v>
+        <v>122000000</v>
       </c>
       <c r="C9">
-        <v>234000000</v>
+        <v>73000000</v>
       </c>
       <c r="D9">
-        <v>226000000</v>
+        <v>50000000</v>
       </c>
       <c r="E9">
-        <v>227000000</v>
+        <v>44000000</v>
       </c>
       <c r="F9">
-        <v>230000000</v>
+        <v>38000000</v>
       </c>
       <c r="G9">
         <v>243000000</v>
@@ -1518,23 +1629,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>706000000</v>
+        <v>364000000</v>
       </c>
       <c r="C10">
-        <v>16000000</v>
+        <v>664000000</v>
       </c>
       <c r="D10">
-        <v>583000000</v>
+        <v>861000000</v>
       </c>
       <c r="E10">
-        <v>-584000000</v>
+        <v>648000000</v>
       </c>
       <c r="F10">
-        <v>893000000</v>
+        <v>824000000</v>
       </c>
       <c r="G10">
         <v>868000000</v>
@@ -1640,8 +1751,8 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
         <v>4097000000</v>
@@ -1653,7 +1764,7 @@
         <v>2779000000</v>
       </c>
       <c r="E11">
-        <v>936000000</v>
+        <v>2237000000</v>
       </c>
       <c r="F11">
         <v>2538000000</v>
@@ -1762,8 +1873,8 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
         <v>845000000</v>
@@ -1884,8 +1995,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>3252000000</v>
@@ -2006,8 +2117,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>367000000</v>
@@ -2080,8 +2191,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
         <v>27000000</v>
@@ -2169,8 +2280,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>-53000000</v>
@@ -2291,8 +2402,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>3278000000</v>
@@ -2413,23 +2524,23 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>2.26</v>
+        <v>2.25</v>
       </c>
       <c r="C18">
         <v>1.14</v>
       </c>
       <c r="D18">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="E18">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="F18">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="G18">
         <v>1.92</v>
@@ -2535,8 +2646,8 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
         <v>2.25</v>
@@ -2657,8 +2768,8 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
         <v>1448000000</v>
@@ -2670,7 +2781,7 @@
         <v>1458000000</v>
       </c>
       <c r="E20">
-        <v>1451000000</v>
+        <v>1453000000</v>
       </c>
       <c r="F20">
         <v>1452000000</v>
@@ -2779,8 +2890,8 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
         <v>1457000000</v>
@@ -2792,7 +2903,7 @@
         <v>1470000000</v>
       </c>
       <c r="E21">
-        <v>1468000000</v>
+        <v>1472000000</v>
       </c>
       <c r="F21">
         <v>1467000000</v>
@@ -2901,8 +3012,8 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
         <v>0.1401</v>
@@ -3023,8 +3134,8 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
         <v>0.081</v>
@@ -3145,8 +3256,8 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
         <v>0.0978</v>
@@ -3158,7 +3269,7 @@
         <v>0.0772</v>
       </c>
       <c r="E24">
-        <v>0.0279</v>
+        <v>0.06660000000000001</v>
       </c>
       <c r="F24">
         <v>0.0948</v>
@@ -3267,8 +3378,8 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
         <v>0.07829999999999999</v>
@@ -3389,14 +3500,14 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
-        <v>6165000000</v>
+        <v>6166000000</v>
       </c>
       <c r="C26">
-        <v>4972000000</v>
+        <v>4960000000</v>
       </c>
       <c r="D26">
         <v>5087000000</v>
@@ -3511,8 +3622,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>3392000000</v>
@@ -3633,8 +3744,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>3252000000</v>
@@ -3755,8 +3866,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="T29">
         <v>-70000000</v>
@@ -3784,8 +3895,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>3252000000</v>
@@ -3906,8 +4017,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>2.2459</v>
@@ -4028,8 +4139,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>2.232</v>
@@ -4150,8 +4261,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="T33">
         <v>0.05</v>
@@ -4179,8 +4290,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="T34">
         <v>0.05</v>
@@ -4208,8 +4319,8 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
         <v>2.2459</v>
@@ -4330,8 +4441,8 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
         <v>2.232</v>
@@ -4452,8 +4563,8 @@
       </c>
     </row>
     <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B37">
         <v>1457000000</v>
@@ -4574,14 +4685,14 @@
       </c>
     </row>
     <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
+      <c r="A38" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B38">
         <v>0.1472</v>
       </c>
       <c r="C38">
-        <v>0.139</v>
+        <v>0.1387</v>
       </c>
       <c r="D38">
         <v>0.1414</v>
@@ -4696,8 +4807,8 @@
       </c>
     </row>
     <row r="39" spans="1:40">
-      <c r="A39" t="s">
-        <v>38</v>
+      <c r="A39" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B39">
         <v>0.1239</v>
